--- a/excel/fairtex.xlsx
+++ b/excel/fairtex.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>FAIRTEX EQUIPMENT CO.,LTD.</t>
   </si>
@@ -35,15 +35,27 @@
     <t>CONSIGNEE:</t>
   </si>
   <si>
+    <t>Matthew Bellafontaine</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHIP TO : </t>
   </si>
   <si>
+    <t>715 Windmill Rd., Dartmouth,Nova, Scotia, Canada B3B1C2,Canada</t>
+  </si>
+  <si>
     <t xml:space="preserve">Invoice No : </t>
   </si>
   <si>
+    <t>20200709/0012</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
+    <t>09-07-2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">OUR REF  : </t>
   </si>
   <si>
@@ -90,6 +102,63 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>1,000</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>1,560</t>
+  </si>
+  <si>
+    <t>BGL3</t>
+  </si>
+  <si>
+    <t>12oz</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>2,960</t>
+  </si>
+  <si>
+    <t>AS1</t>
+  </si>
+  <si>
+    <t>Green/White</t>
+  </si>
+  <si>
+    <t>Sub total</t>
+  </si>
+  <si>
+    <t>7012.00 $</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>200 $</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t>0 $</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>6812.00 $</t>
+  </si>
+  <si>
+    <t>BRAND : FAIRTEX</t>
   </si>
 </sst>
 </file>
@@ -152,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -165,6 +234,12 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,6 +247,41 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2095500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="logo" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,15 +574,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="49.416504" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="32.849121" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
+      <c r="A1"/>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
@@ -501,11 +616,15 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -516,9 +635,11 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
@@ -527,9 +648,11 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
@@ -556,7 +679,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -581,7 +704,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -601,15 +724,15 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -633,73 +756,201 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>10.0</v>
       </c>
       <c r="F21">
-        <v>22.0</v>
-      </c>
-      <c r="G21">
-        <v>220.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>11.0</v>
       </c>
       <c r="F22">
-        <v>23.0</v>
-      </c>
-      <c r="G22">
-        <v>253.0</v>
-      </c>
+        <v>24.0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>40.0</v>
+      </c>
+      <c r="F23">
+        <v>25.0</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>60.0</v>
+      </c>
+      <c r="F24">
+        <v>26.0</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25">
+        <v>80.0</v>
+      </c>
+      <c r="F25">
+        <v>37.0</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26">
+        <v>100.0</v>
+      </c>
+      <c r="F26">
+        <v>9.98</v>
+      </c>
+      <c r="G26" s="5">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="F29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="F30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="F31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="F32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -714,5 +965,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>